--- a/data/table-workload-subsets.xlsx
+++ b/data/table-workload-subsets.xlsx
@@ -18,13 +18,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>with pruning</t>
-  </si>
-  <si>
     <t>without pruning</t>
   </si>
   <si>
     <t>Number of queries in workload</t>
+  </si>
+  <si>
+    <t>No. of subsets</t>
   </si>
 </sst>
 </file>
@@ -129,7 +129,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>with pruning</c:v>
+                  <c:v>No. of subsets</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -299,7 +299,6 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="r"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -307,11 +306,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="181594944"/>
-        <c:axId val="181593216"/>
+        <c:axId val="71693376"/>
+        <c:axId val="71693952"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="181594944"/>
+        <c:axId val="71693376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -324,10 +323,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1400"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:rPr lang="en-US" sz="1400"/>
                   <a:t>Number of queries in workload</a:t>
                 </a:r>
               </a:p>
@@ -340,12 +339,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181593216"/>
+        <c:crossAx val="71693952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="181593216"/>
+        <c:axId val="71693952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -359,10 +358,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1400"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:rPr lang="en-US" sz="1400"/>
                   <a:t>Number of cadidate subsets</a:t>
                 </a:r>
               </a:p>
@@ -375,7 +374,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181594944"/>
+        <c:crossAx val="71693376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -389,7 +388,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1100"/>
+            <a:defRPr sz="1200"/>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
         </a:p>
@@ -732,7 +731,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C25"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -744,13 +743,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
